--- a/stock/data/삼성SDS.xlsx
+++ b/stock/data/삼성SDS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2308"/>
+  <dimension ref="A1:G2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53529,10 +53529,769 @@
         <v>163500</v>
       </c>
       <c r="F2308" t="n">
-        <v>126801</v>
+        <v>126993</v>
       </c>
       <c r="G2308" t="n">
         <v>-0.06112469437652811</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B2309" t="n">
+        <v>165300</v>
+      </c>
+      <c r="C2309" t="n">
+        <v>171800</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>165000</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>165400</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>176487</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>1.162079510703364</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B2310" t="n">
+        <v>165200</v>
+      </c>
+      <c r="C2310" t="n">
+        <v>165200</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>159500</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>160400</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>133491</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>-3.022974607013301</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B2311" t="n">
+        <v>159500</v>
+      </c>
+      <c r="C2311" t="n">
+        <v>159500</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>155600</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>161816</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>-2.992518703241895</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B2312" t="n">
+        <v>157500</v>
+      </c>
+      <c r="C2312" t="n">
+        <v>158500</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>155800</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>157200</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>63834</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>1.02827763496144</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B2313" t="n">
+        <v>156000</v>
+      </c>
+      <c r="C2313" t="n">
+        <v>157200</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>154100</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>99687</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>-1.081424936386768</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B2314" t="n">
+        <v>155700</v>
+      </c>
+      <c r="C2314" t="n">
+        <v>157200</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>154800</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>155100</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>82915</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>-0.2572347266881029</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B2315" t="n">
+        <v>156600</v>
+      </c>
+      <c r="C2315" t="n">
+        <v>157500</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>152900</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>154700</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>84490</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>-0.2578981302385558</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B2316" t="n">
+        <v>151200</v>
+      </c>
+      <c r="C2316" t="n">
+        <v>151900</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>148500</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>151100</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>194810</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>-2.327084680025857</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B2317" t="n">
+        <v>149500</v>
+      </c>
+      <c r="C2317" t="n">
+        <v>152000</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>148200</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>151400</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>100197</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>0.1985440105890139</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B2318" t="n">
+        <v>151000</v>
+      </c>
+      <c r="C2318" t="n">
+        <v>151000</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>147000</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>147900</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>91551</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>-2.311756935270806</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B2319" t="n">
+        <v>146500</v>
+      </c>
+      <c r="C2319" t="n">
+        <v>148900</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>147300</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>94037</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>-0.4056795131845842</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B2320" t="n">
+        <v>148200</v>
+      </c>
+      <c r="C2320" t="n">
+        <v>148300</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>145400</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>145400</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>94958</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>-1.289884589273591</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B2321" t="n">
+        <v>146800</v>
+      </c>
+      <c r="C2321" t="n">
+        <v>150800</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>146300</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>149600</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>141450</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>2.888583218707015</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B2322" t="n">
+        <v>146100</v>
+      </c>
+      <c r="C2322" t="n">
+        <v>148600</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>144500</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>147400</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>150716</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>-1.470588235294118</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B2323" t="n">
+        <v>150200</v>
+      </c>
+      <c r="C2323" t="n">
+        <v>151000</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>147600</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>150900</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>107718</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>2.37449118046133</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B2324" t="n">
+        <v>152800</v>
+      </c>
+      <c r="C2324" t="n">
+        <v>155000</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>150300</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>152000</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>115243</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>0.7289595758780649</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B2325" t="n">
+        <v>153100</v>
+      </c>
+      <c r="C2325" t="n">
+        <v>153600</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>150900</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>151500</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>82130</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>-0.3289473684210526</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B2326" t="n">
+        <v>149900</v>
+      </c>
+      <c r="C2326" t="n">
+        <v>152700</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>148000</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>150200</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>91884</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>-0.8580858085808581</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B2327" t="n">
+        <v>152700</v>
+      </c>
+      <c r="C2327" t="n">
+        <v>159200</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>152200</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>158600</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>195688</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>5.59254327563249</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B2328" t="n">
+        <v>159400</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>160000</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>158300</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>158900</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>93822</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.1891551071878941</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B2329" t="n">
+        <v>157400</v>
+      </c>
+      <c r="C2329" t="n">
+        <v>164200</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>157300</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>160100</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>183368</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.7551919446192574</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B2330" t="n">
+        <v>158300</v>
+      </c>
+      <c r="C2330" t="n">
+        <v>159900</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>157400</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>158400</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>90393</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>-1.061836352279825</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B2331" t="n">
+        <v>161100</v>
+      </c>
+      <c r="C2331" t="n">
+        <v>161100</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>158200</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>158800</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>66886</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.2525252525252525</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B2332" t="n">
+        <v>160700</v>
+      </c>
+      <c r="C2332" t="n">
+        <v>160700</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>158900</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>160100</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>118555</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.818639798488665</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B2333" t="n">
+        <v>160400</v>
+      </c>
+      <c r="C2333" t="n">
+        <v>160800</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>157500</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>159100</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>102138</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>-0.6246096189881324</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B2334" t="n">
+        <v>159900</v>
+      </c>
+      <c r="C2334" t="n">
+        <v>159900</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>153900</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>155300</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>154463</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>-2.388434946574481</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B2335" t="n">
+        <v>157300</v>
+      </c>
+      <c r="C2335" t="n">
+        <v>157800</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>156700</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>71445</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.901481004507405</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B2336" t="n">
+        <v>157000</v>
+      </c>
+      <c r="C2336" t="n">
+        <v>157900</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>155600</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>156000</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>58836</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>-0.4467134652201659</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B2337" t="n">
+        <v>156200</v>
+      </c>
+      <c r="C2337" t="n">
+        <v>163500</v>
+      </c>
+      <c r="D2337" t="n">
+        <v>156200</v>
+      </c>
+      <c r="E2337" t="n">
+        <v>161600</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>237092</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>3.589743589743589</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B2338" t="n">
+        <v>163000</v>
+      </c>
+      <c r="C2338" t="n">
+        <v>163200</v>
+      </c>
+      <c r="D2338" t="n">
+        <v>161100</v>
+      </c>
+      <c r="E2338" t="n">
+        <v>161700</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>145994</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.06188118811881188</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B2339" t="n">
+        <v>160100</v>
+      </c>
+      <c r="C2339" t="n">
+        <v>161500</v>
+      </c>
+      <c r="D2339" t="n">
+        <v>158200</v>
+      </c>
+      <c r="E2339" t="n">
+        <v>158500</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>92172</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>-1.978973407544836</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B2340" t="n">
+        <v>160100</v>
+      </c>
+      <c r="C2340" t="n">
+        <v>160200</v>
+      </c>
+      <c r="D2340" t="n">
+        <v>156800</v>
+      </c>
+      <c r="E2340" t="n">
+        <v>158200</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>85958</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>-0.1892744479495268</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B2341" t="n">
+        <v>160300</v>
+      </c>
+      <c r="C2341" t="n">
+        <v>166100</v>
+      </c>
+      <c r="D2341" t="n">
+        <v>159000</v>
+      </c>
+      <c r="E2341" t="n">
+        <v>166100</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>304156</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>4.993678887484197</v>
       </c>
     </row>
   </sheetData>
